--- a/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{576A71B5-D781-44A9-B40A-B3DFED887F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA5D127D-D124-4731-9D77-3BFE49E687CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A5F772E-BE68-4BC9-AFE5-59857743DB26}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B858275-2667-48CB-A104-6FF0B2257C26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="560">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,03%</t>
+    <t>15,28%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -95,7 +95,7 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>10,43%</t>
+    <t>11,26%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -104,7 +104,7 @@
     <t>95,12%</t>
   </si>
   <si>
-    <t>83,97%</t>
+    <t>84,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -119,7 +119,7 @@
     <t>96,12%</t>
   </si>
   <si>
-    <t>89,57%</t>
+    <t>88,74%</t>
   </si>
   <si>
     <t>98,92%</t>
@@ -134,49 +134,49 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>92,21%</t>
+    <t>91,9%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -185,25 +185,25 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>10,17%</t>
+    <t>10,12%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>89,83%</t>
+    <t>89,88%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -212,1543 +212,1501 @@
     <t>1,51%</t>
   </si>
   <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
     <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>90,42%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>92,31%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>5,43%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>94,57%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>5,91%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>83,16%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>94,09%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>4,09%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>15,63%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>95,91%</t>
+    <t>95,8%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>84,37%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
     <t>10,51%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>91,18%</t>
@@ -1757,16 +1715,10 @@
     <t>89,49%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>94,28%</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF92A9-66B2-45F5-9244-AC77C8246BDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E6F3F-BACE-4BFE-AB37-51B6DC5D917B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3113,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,7 +3083,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -3143,10 +3095,10 @@
         <v>69168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -3158,10 +3110,10 @@
         <v>116365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -3220,7 +3172,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3232,13 +3184,13 @@
         <v>1788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3247,13 +3199,13 @@
         <v>3953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3262,13 +3214,13 @@
         <v>5742</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,10 +3235,10 @@
         <v>104140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>22</v>
@@ -3298,13 +3250,13 @@
         <v>113168</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>219</v>
@@ -3313,13 +3265,13 @@
         <v>217307</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,7 +3327,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3387,13 +3339,13 @@
         <v>4905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3402,13 +3354,13 @@
         <v>8437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3417,13 +3369,13 @@
         <v>13341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3390,13 @@
         <v>106988</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3453,13 +3405,13 @@
         <v>144788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>248</v>
@@ -3468,13 +3420,13 @@
         <v>251777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3494,13 @@
         <v>15469</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3557,13 +3509,13 @@
         <v>27366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -3572,13 +3524,13 @@
         <v>42835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3545,13 @@
         <v>486997</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>635</v>
@@ -3608,13 +3560,13 @@
         <v>649476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>1141</v>
@@ -3623,13 +3575,13 @@
         <v>1136473</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,7 +3637,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BBDC57-7AF2-4A4A-83B5-B471A7AB9947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40995BD9-E911-4762-BDFE-F8F3F2E5B76A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3726,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3831,39 +3783,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,39 +3828,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,39 +3873,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3922,13 @@
         <v>7392</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3985,13 +3937,13 @@
         <v>15417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4000,13 +3952,13 @@
         <v>22808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +3973,13 @@
         <v>71811</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4036,13 +3988,13 @@
         <v>86676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4051,13 +4003,13 @@
         <v>158488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4077,13 @@
         <v>5063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4140,13 +4092,13 @@
         <v>9683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4155,13 +4107,13 @@
         <v>14746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4128,13 @@
         <v>50679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -4191,13 +4143,13 @@
         <v>70285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -4206,13 +4158,13 @@
         <v>120964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4232,13 @@
         <v>6521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4295,13 +4247,13 @@
         <v>15078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4310,13 +4262,13 @@
         <v>21598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4283,13 @@
         <v>101787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -4346,13 +4298,13 @@
         <v>119390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>207</v>
@@ -4361,13 +4313,13 @@
         <v>221179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4387,13 @@
         <v>3292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4450,13 +4402,13 @@
         <v>2979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4465,13 +4417,13 @@
         <v>6271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4438,13 @@
         <v>28320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4501,13 +4453,13 @@
         <v>46876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4516,13 +4468,13 @@
         <v>75196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4542,13 @@
         <v>2132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4605,13 +4557,13 @@
         <v>6406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4620,13 +4572,13 @@
         <v>8538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,10 +4593,10 @@
         <v>49624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -4656,13 +4608,13 @@
         <v>63806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -4671,13 +4623,13 @@
         <v>113430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,7 +4685,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4745,13 +4697,13 @@
         <v>7346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4760,13 +4712,13 @@
         <v>14165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4775,13 +4727,13 @@
         <v>21510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4748,13 @@
         <v>104917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H23" s="7">
         <v>116</v>
@@ -4811,13 +4763,13 @@
         <v>127797</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>210</v>
@@ -4826,13 +4778,13 @@
         <v>232716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,7 +4840,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4900,13 +4852,13 @@
         <v>3248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4915,13 +4867,13 @@
         <v>14796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4930,13 +4882,13 @@
         <v>18044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4903,13 @@
         <v>117504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -4966,13 +4918,13 @@
         <v>149621</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>241</v>
@@ -4981,13 +4933,13 @@
         <v>267125</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5007,13 @@
         <v>34993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5070,13 +5022,13 @@
         <v>78523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -5085,13 +5037,13 @@
         <v>113516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5058,13 @@
         <v>524644</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>623</v>
@@ -5121,13 +5073,13 @@
         <v>664452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
         <v>1096</v>
@@ -5136,13 +5088,13 @@
         <v>1189096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,7 +5150,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2341574-C0B5-49ED-8DEE-91F85E432686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAACEEE0-E7E0-448E-8A03-F42F5F8E329E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5239,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5346,13 +5298,13 @@
         <v>1593</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5361,13 +5313,13 @@
         <v>5607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5376,13 +5328,13 @@
         <v>7200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,10 +5349,10 @@
         <v>37303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5412,13 +5364,13 @@
         <v>43784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -5427,13 +5379,13 @@
         <v>81087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5453,13 @@
         <v>2923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5516,13 +5468,13 @@
         <v>7796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5531,13 +5483,13 @@
         <v>10719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5504,13 @@
         <v>84372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5567,13 +5519,13 @@
         <v>107432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -5582,13 +5534,13 @@
         <v>191804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5608,13 @@
         <v>2034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5671,13 +5623,13 @@
         <v>4477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5686,13 +5638,13 @@
         <v>6512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,10 +5659,10 @@
         <v>61512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5722,13 +5674,13 @@
         <v>75420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -5737,13 +5689,13 @@
         <v>136931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5763,13 @@
         <v>2578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5826,13 +5778,13 @@
         <v>4710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5841,13 +5793,13 @@
         <v>7289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5814,13 @@
         <v>62134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5877,13 +5829,13 @@
         <v>86864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5892,13 +5844,13 @@
         <v>148996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5918,7 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -5996,13 +5948,13 @@
         <v>6510</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,10 +5969,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -6032,13 +5984,13 @@
         <v>44821</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6047,13 +5999,13 @@
         <v>86102</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6073,13 @@
         <v>4202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6136,13 +6088,13 @@
         <v>10297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6151,13 +6103,13 @@
         <v>14499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6124,13 @@
         <v>44244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -6187,13 +6139,13 @@
         <v>57091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -6202,13 +6154,13 @@
         <v>101335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +6216,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6276,13 +6228,13 @@
         <v>4659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6291,13 +6243,13 @@
         <v>9548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6306,13 +6258,13 @@
         <v>14206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6279,13 @@
         <v>107526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -6342,13 +6294,13 @@
         <v>138077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -6357,13 +6309,13 @@
         <v>245604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,7 +6371,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6431,13 +6383,13 @@
         <v>3053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6449,10 +6401,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6461,13 +6413,13 @@
         <v>8314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6434,13 @@
         <v>131115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -6500,10 +6452,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>276</v>
@@ -6512,13 +6464,13 @@
         <v>302151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6538,13 @@
         <v>21842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6601,13 +6553,13 @@
         <v>53406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>411</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6616,13 +6568,13 @@
         <v>75248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>416</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6589,13 @@
         <v>569486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="H29" s="7">
         <v>614</v>
@@ -6652,13 +6604,13 @@
         <v>724525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>1217</v>
@@ -6667,13 +6619,13 @@
         <v>1294011</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6681,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6753,7 +6705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1774A1CC-C272-4E83-B3D3-8F33700016F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E4939F-33D4-4BA3-9E2F-36D2FB0E4105}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6770,7 +6722,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6877,13 +6829,13 @@
         <v>815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6892,13 +6844,13 @@
         <v>5494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6907,13 +6859,13 @@
         <v>6309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,10 +6880,10 @@
         <v>51105</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -6943,13 +6895,13 @@
         <v>56725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -6958,13 +6910,13 @@
         <v>107830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +6984,13 @@
         <v>6642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -7047,13 +6999,13 @@
         <v>24904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -7062,13 +7014,13 @@
         <v>31546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7035,13 @@
         <v>79672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
@@ -7098,13 +7050,13 @@
         <v>116453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M8" s="7">
         <v>275</v>
@@ -7113,13 +7065,13 @@
         <v>196125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7139,13 @@
         <v>9985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -7202,13 +7154,13 @@
         <v>12009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -7217,13 +7169,13 @@
         <v>21994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7190,13 @@
         <v>67616</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -7253,13 +7205,13 @@
         <v>82942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
@@ -7268,13 +7220,13 @@
         <v>150558</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7294,13 @@
         <v>1416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7357,13 +7309,13 @@
         <v>10694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -7372,13 +7324,13 @@
         <v>12110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,10 +7345,10 @@
         <v>77389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -7408,13 +7360,13 @@
         <v>99761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -7423,13 +7375,13 @@
         <v>177150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7449,13 @@
         <v>2327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7512,13 +7464,13 @@
         <v>7021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>490</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -7527,13 +7479,13 @@
         <v>9347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7500,13 @@
         <v>36004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -7563,13 +7515,13 @@
         <v>58074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -7578,13 +7530,13 @@
         <v>94079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7604,13 @@
         <v>5056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7667,13 +7619,13 @@
         <v>11106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -7682,13 +7634,13 @@
         <v>16162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,13 +7655,13 @@
         <v>58127</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>469</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -7718,13 +7670,13 @@
         <v>58747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -7733,13 +7685,13 @@
         <v>116875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,7 +7747,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7807,13 +7759,13 @@
         <v>3864</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -7822,13 +7774,13 @@
         <v>10890</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -7837,13 +7789,13 @@
         <v>14754</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,13 +7810,13 @@
         <v>126976</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H23" s="7">
         <v>226</v>
@@ -7873,13 +7825,13 @@
         <v>247953</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -7888,13 +7840,13 @@
         <v>374929</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,7 +7902,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7962,13 +7914,13 @@
         <v>3722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>540</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7977,13 +7929,13 @@
         <v>8361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7992,13 +7944,13 @@
         <v>12083</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>547</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +7965,13 @@
         <v>166205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>549</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
@@ -8028,13 +7980,13 @@
         <v>214682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="M26" s="7">
         <v>559</v>
@@ -8043,13 +7995,13 @@
         <v>380887</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>389</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,13 +8069,13 @@
         <v>33826</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>558</v>
+        <v>91</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -8132,13 +8084,13 @@
         <v>90479</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>562</v>
+        <v>68</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>220</v>
@@ -8147,13 +8099,13 @@
         <v>124305</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>566</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,13 +8120,13 @@
         <v>663095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
@@ -8183,13 +8135,13 @@
         <v>935338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="M29" s="7">
         <v>2513</v>
@@ -8198,13 +8150,13 @@
         <v>1598433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,7 +8212,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA5D127D-D124-4731-9D77-3BFE49E687CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{689DA204-169D-47BD-A783-5A12C5EB050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B858275-2667-48CB-A104-6FF0B2257C26}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD85BFBF-B38D-41FF-A758-FEC4F027C0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="570">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1645 +80,1675 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>91,72%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E6F3F-BACE-4BFE-AB37-51B6DC5D917B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566D046-83AE-454E-9655-1EF85E73B93C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3217,10 +3247,10 @@
         <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,10 +3265,10 @@
         <v>104140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>22</v>
@@ -3250,13 +3280,13 @@
         <v>113168</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>219</v>
@@ -3265,13 +3295,13 @@
         <v>217307</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3357,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3339,13 +3369,13 @@
         <v>4905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3354,13 +3384,13 @@
         <v>8437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3369,13 +3399,13 @@
         <v>13341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3420,13 @@
         <v>106988</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3405,13 +3435,13 @@
         <v>144788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="M26" s="7">
         <v>248</v>
@@ -3661,7 +3691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40995BD9-E911-4762-BDFE-F8F3F2E5B76A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F2372-665A-4A59-A493-7F8AE21EDED1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3955,10 +3985,10 @@
         <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +4003,13 @@
         <v>71811</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -3988,13 +4018,13 @@
         <v>86676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4003,13 +4033,13 @@
         <v>158488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4107,13 @@
         <v>5063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4092,13 +4122,13 @@
         <v>9683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4107,13 +4137,13 @@
         <v>14746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4158,13 @@
         <v>50679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -4143,13 +4173,13 @@
         <v>70285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -4158,13 +4188,13 @@
         <v>120964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4262,13 @@
         <v>6521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4247,13 +4277,13 @@
         <v>15078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4262,13 +4292,13 @@
         <v>21598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4313,13 @@
         <v>101787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -4298,13 +4328,13 @@
         <v>119390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>207</v>
@@ -4313,13 +4343,13 @@
         <v>221179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4417,13 @@
         <v>3292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4402,13 +4432,13 @@
         <v>2979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4417,13 +4447,13 @@
         <v>6271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4468,13 @@
         <v>28320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4453,13 +4483,13 @@
         <v>46876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4468,13 +4498,13 @@
         <v>75196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4572,13 @@
         <v>2132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4557,13 +4587,13 @@
         <v>6406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4572,13 +4602,13 @@
         <v>8538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,10 +4623,10 @@
         <v>49624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -4608,13 +4638,13 @@
         <v>63806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -4623,13 +4653,13 @@
         <v>113430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4727,13 @@
         <v>7346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4712,13 +4742,13 @@
         <v>14165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4727,13 +4757,13 @@
         <v>21510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4778,13 @@
         <v>104917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="H23" s="7">
         <v>116</v>
@@ -4763,13 +4793,13 @@
         <v>127797</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>210</v>
@@ -4778,13 +4808,13 @@
         <v>232716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,7 +4870,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4852,13 +4882,13 @@
         <v>3248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4867,13 +4897,13 @@
         <v>14796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4882,13 +4912,13 @@
         <v>18044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4933,13 @@
         <v>117504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -4918,13 +4948,13 @@
         <v>149621</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>241</v>
@@ -4933,13 +4963,13 @@
         <v>267125</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5037,13 @@
         <v>34993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5022,13 +5052,13 @@
         <v>78523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -5037,13 +5067,13 @@
         <v>113516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5088,13 @@
         <v>524644</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>623</v>
@@ -5073,13 +5103,13 @@
         <v>664452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>1096</v>
@@ -5088,13 +5118,13 @@
         <v>1189096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAACEEE0-E7E0-448E-8A03-F42F5F8E329E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB47853-132E-4523-B446-BA2AE00D2AA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,7 +5221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5298,13 +5328,13 @@
         <v>1593</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5313,10 +5343,10 @@
         <v>5607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>293</v>
@@ -5331,10 +5361,10 @@
         <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,10 +5379,10 @@
         <v>37303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5364,28 +5394,28 @@
         <v>43784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>81087</v>
+        <v>81086</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5457,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5453,13 +5483,13 @@
         <v>2923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5468,13 +5498,13 @@
         <v>7796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5483,13 +5513,13 @@
         <v>10719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5534,13 @@
         <v>84372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5519,13 +5549,13 @@
         <v>107432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -5534,13 +5564,13 @@
         <v>191804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5638,13 @@
         <v>2034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5623,13 +5653,13 @@
         <v>4477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5638,13 +5668,13 @@
         <v>6512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,10 +5689,10 @@
         <v>61512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5674,13 +5704,13 @@
         <v>75420</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -5689,13 +5719,13 @@
         <v>136931</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5793,13 @@
         <v>2578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5778,13 +5808,13 @@
         <v>4710</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5793,13 +5823,13 @@
         <v>7289</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5844,13 @@
         <v>62134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5829,13 +5859,13 @@
         <v>86864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5844,13 +5874,13 @@
         <v>148996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5948,13 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5933,13 +5963,13 @@
         <v>5711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5948,13 +5978,13 @@
         <v>6510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,10 +5999,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -5984,13 +6014,13 @@
         <v>44821</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -5999,13 +6029,13 @@
         <v>86102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6103,13 @@
         <v>4202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6088,13 +6118,13 @@
         <v>10297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6103,13 +6133,13 @@
         <v>14499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6154,13 @@
         <v>44244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -6139,13 +6169,13 @@
         <v>57091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -6154,13 +6184,13 @@
         <v>101335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6258,13 @@
         <v>4659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6243,13 +6273,13 @@
         <v>9548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6258,13 +6288,13 @@
         <v>14206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6309,13 @@
         <v>107526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -6294,13 +6324,13 @@
         <v>138077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -6309,13 +6339,13 @@
         <v>245604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,7 +6401,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6383,13 +6413,13 @@
         <v>3053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6401,10 +6431,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6413,13 +6443,13 @@
         <v>8314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6464,13 @@
         <v>131115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -6452,10 +6482,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="M26" s="7">
         <v>276</v>
@@ -6464,13 +6494,13 @@
         <v>302151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6568,13 @@
         <v>21842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>409</v>
+        <v>91</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6553,13 +6583,13 @@
         <v>53406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6568,13 +6598,13 @@
         <v>75248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>424</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6619,13 @@
         <v>569486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>415</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="H29" s="7">
         <v>614</v>
@@ -6604,13 +6634,13 @@
         <v>724525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>430</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M29" s="7">
         <v>1217</v>
@@ -6619,13 +6649,13 @@
         <v>1294011</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,7 +6735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E4939F-33D4-4BA3-9E2F-36D2FB0E4105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8A8D5-C68E-45A6-A658-31A7ADE97817}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6722,7 +6752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6829,13 +6859,13 @@
         <v>815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6844,13 +6874,13 @@
         <v>5494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6859,13 +6889,13 @@
         <v>6309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,10 +6910,10 @@
         <v>51105</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -6895,13 +6925,13 @@
         <v>56725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>431</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -6910,13 +6940,13 @@
         <v>107830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +7014,13 @@
         <v>6642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -6999,13 +7029,13 @@
         <v>24904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -7014,13 +7044,13 @@
         <v>31546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7065,13 @@
         <v>79672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
@@ -7050,13 +7080,13 @@
         <v>116453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="M8" s="7">
         <v>275</v>
@@ -7065,13 +7095,13 @@
         <v>196125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7169,13 @@
         <v>9985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -7154,13 +7184,13 @@
         <v>12009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -7169,13 +7199,13 @@
         <v>21994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7220,13 @@
         <v>67616</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -7205,13 +7235,13 @@
         <v>82942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
@@ -7220,13 +7250,13 @@
         <v>150558</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7324,13 @@
         <v>1416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7309,13 +7339,13 @@
         <v>10694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>473</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -7324,13 +7354,13 @@
         <v>12110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,10 +7375,10 @@
         <v>77389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -7360,13 +7390,13 @@
         <v>99761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -7375,13 +7405,13 @@
         <v>177150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7479,13 @@
         <v>2327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7464,13 +7494,13 @@
         <v>7021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -7479,13 +7509,13 @@
         <v>9347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7530,13 @@
         <v>36004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -7515,13 +7545,13 @@
         <v>58074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -7530,13 +7560,13 @@
         <v>94079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7634,13 @@
         <v>5056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7619,13 +7649,13 @@
         <v>11106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>506</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -7634,13 +7664,13 @@
         <v>16162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7685,13 @@
         <v>58127</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -7670,13 +7700,13 @@
         <v>58747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>514</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -7685,13 +7715,13 @@
         <v>116875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7789,13 @@
         <v>3864</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>520</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>521</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -7774,13 +7804,13 @@
         <v>10890</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -7789,13 +7819,13 @@
         <v>14754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>528</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7840,13 @@
         <v>126976</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>529</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>531</v>
+        <v>27</v>
       </c>
       <c r="H23" s="7">
         <v>226</v>
@@ -7825,13 +7855,13 @@
         <v>247953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -7840,13 +7870,13 @@
         <v>374929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>536</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,7 +7932,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7914,13 +7944,13 @@
         <v>3722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>544</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>538</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7929,13 +7959,13 @@
         <v>8361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>36</v>
+        <v>544</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7944,13 +7974,13 @@
         <v>12083</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,13 +7995,13 @@
         <v>166205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
@@ -7980,13 +8010,13 @@
         <v>214682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="M26" s="7">
         <v>559</v>
@@ -7995,13 +8025,13 @@
         <v>380887</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>554</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,13 +8099,13 @@
         <v>33826</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>556</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -8084,13 +8114,13 @@
         <v>90479</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="M28" s="7">
         <v>220</v>
@@ -8099,13 +8129,13 @@
         <v>124305</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8150,13 @@
         <v>663095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
@@ -8135,13 +8165,13 @@
         <v>935338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>2513</v>
@@ -8150,13 +8180,13 @@
         <v>1598433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>284</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>559</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689DA204-169D-47BD-A783-5A12C5EB050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68840E77-8396-400C-8E5D-E2643F6145C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD85BFBF-B38D-41FF-A758-FEC4F027C0A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B437E2E-C17B-4242-B4BC-F647975F7558}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="576">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1663 +80,1675 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>98,74%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,27%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>93,55%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
+    <t>6,06%</t>
+  </si>
+  <si>
     <t>10,51%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>8,28%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>91,18%</t>
@@ -1745,10 +1757,16 @@
     <t>89,49%</t>
   </si>
   <si>
+    <t>93,94%</t>
+  </si>
+  <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,72%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566D046-83AE-454E-9655-1EF85E73B93C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC536C-752E-48A4-B9A1-5BC032730D84}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3095,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -3125,10 +3143,10 @@
         <v>69168</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -3140,10 +3158,10 @@
         <v>116365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -3202,7 +3220,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3214,13 +3232,13 @@
         <v>1788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3229,13 +3247,13 @@
         <v>3953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3244,13 +3262,13 @@
         <v>5742</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,10 +3283,10 @@
         <v>104140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>22</v>
@@ -3280,13 +3298,13 @@
         <v>113168</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>219</v>
@@ -3295,13 +3313,13 @@
         <v>217307</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3375,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3387,13 @@
         <v>4905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3384,13 +3402,13 @@
         <v>8437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3399,13 +3417,13 @@
         <v>13341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3438,13 @@
         <v>106988</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3435,13 +3453,13 @@
         <v>144788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>248</v>
@@ -3450,13 +3468,13 @@
         <v>251777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3542,13 @@
         <v>15469</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3539,13 +3557,13 @@
         <v>27366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -3554,13 +3572,13 @@
         <v>42835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3593,13 @@
         <v>486997</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>635</v>
@@ -3590,13 +3608,13 @@
         <v>649476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>1141</v>
@@ -3605,13 +3623,13 @@
         <v>1136473</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3685,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F2372-665A-4A59-A493-7F8AE21EDED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63A3714-6A77-47D3-BEF7-C661238652FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3708,7 +3726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3813,39 +3831,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,39 +3876,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,39 +3921,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3970,13 @@
         <v>7392</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3967,13 +3985,13 @@
         <v>15417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3982,13 +4000,13 @@
         <v>22808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4021,13 @@
         <v>71811</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4018,13 +4036,13 @@
         <v>86676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4033,13 +4051,13 @@
         <v>158488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4125,13 @@
         <v>5063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4122,13 +4140,13 @@
         <v>9683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4137,13 +4155,13 @@
         <v>14746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4176,13 @@
         <v>50679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -4173,13 +4191,13 @@
         <v>70285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -4188,13 +4206,13 @@
         <v>120964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4280,13 @@
         <v>6521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4277,13 +4295,13 @@
         <v>15078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4292,13 +4310,13 @@
         <v>21598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4331,13 @@
         <v>101787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -4328,13 +4346,13 @@
         <v>119390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>207</v>
@@ -4343,13 +4361,13 @@
         <v>221179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4435,13 @@
         <v>3292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4432,13 +4450,13 @@
         <v>2979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4447,13 +4465,13 @@
         <v>6271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4486,13 @@
         <v>28320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4483,13 +4501,13 @@
         <v>46876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4498,13 +4516,13 @@
         <v>75196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4590,13 @@
         <v>2132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4587,13 +4605,13 @@
         <v>6406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4602,13 +4620,13 @@
         <v>8538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,10 +4641,10 @@
         <v>49624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -4638,13 +4656,13 @@
         <v>63806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -4653,13 +4671,13 @@
         <v>113430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4733,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4727,13 +4745,13 @@
         <v>7346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4742,13 +4760,13 @@
         <v>14165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4757,13 +4775,13 @@
         <v>21510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4796,13 @@
         <v>104917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="H23" s="7">
         <v>116</v>
@@ -4793,13 +4811,13 @@
         <v>127797</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>210</v>
@@ -4808,13 +4826,13 @@
         <v>232716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4888,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4882,13 +4900,13 @@
         <v>3248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4897,13 +4915,13 @@
         <v>14796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4912,13 +4930,13 @@
         <v>18044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4951,13 @@
         <v>117504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -4948,13 +4966,13 @@
         <v>149621</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>241</v>
@@ -4963,13 +4981,13 @@
         <v>267125</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5055,13 @@
         <v>34993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5052,13 +5070,13 @@
         <v>78523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -5067,13 +5085,13 @@
         <v>113516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5106,13 @@
         <v>524644</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>623</v>
@@ -5103,13 +5121,13 @@
         <v>664452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M29" s="7">
         <v>1096</v>
@@ -5118,13 +5136,13 @@
         <v>1189096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5198,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB47853-132E-4523-B446-BA2AE00D2AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509A9BFA-70DA-4A71-B938-B89C5B3F49E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5221,7 +5239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5328,13 +5346,13 @@
         <v>1593</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5343,13 +5361,13 @@
         <v>5607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5358,13 +5376,13 @@
         <v>7200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,10 +5397,10 @@
         <v>37303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5394,28 +5412,28 @@
         <v>43784</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>81086</v>
+        <v>81087</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5475,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5671,10 +5689,10 @@
         <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,10 +5707,10 @@
         <v>61512</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5704,13 +5722,13 @@
         <v>75420</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -5719,13 +5737,13 @@
         <v>136931</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5811,13 @@
         <v>2578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5808,13 +5826,13 @@
         <v>4710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5823,13 +5841,13 @@
         <v>7289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5862,13 @@
         <v>62134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5859,13 +5877,13 @@
         <v>86864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5874,13 +5892,13 @@
         <v>148996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5966,13 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5963,13 +5981,13 @@
         <v>5711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5978,13 +5996,13 @@
         <v>6510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,10 +6017,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -6014,13 +6032,13 @@
         <v>44821</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6029,13 +6047,13 @@
         <v>86102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6121,13 @@
         <v>4202</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6118,13 +6136,13 @@
         <v>10297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6133,13 +6151,13 @@
         <v>14499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6172,13 @@
         <v>44244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -6169,13 +6187,13 @@
         <v>57091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -6184,13 +6202,13 @@
         <v>101335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,7 +6264,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6258,13 +6276,13 @@
         <v>4659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6273,13 +6291,13 @@
         <v>9548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6288,13 +6306,13 @@
         <v>14206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6327,13 @@
         <v>107526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -6324,13 +6342,13 @@
         <v>138077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -6339,13 +6357,13 @@
         <v>245604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,7 +6419,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6413,13 +6431,13 @@
         <v>3053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6431,10 +6449,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6443,13 +6461,13 @@
         <v>8314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6482,13 @@
         <v>131115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -6482,10 +6500,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M26" s="7">
         <v>276</v>
@@ -6494,13 +6512,13 @@
         <v>302151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6586,13 @@
         <v>21842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>91</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6583,13 +6601,13 @@
         <v>53406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>422</v>
+        <v>35</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6598,13 +6616,13 @@
         <v>75248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6637,13 @@
         <v>569486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="H29" s="7">
         <v>614</v>
@@ -6634,13 +6652,13 @@
         <v>724525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>431</v>
+        <v>43</v>
       </c>
       <c r="M29" s="7">
         <v>1217</v>
@@ -6649,13 +6667,13 @@
         <v>1294011</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,7 +6729,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6735,7 +6753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8A8D5-C68E-45A6-A658-31A7ADE97817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F58AFF-F554-4E67-B274-9917C2988119}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6752,7 +6770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6859,13 +6877,13 @@
         <v>815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6874,13 +6892,13 @@
         <v>5494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>429</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6889,13 +6907,13 @@
         <v>6309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,10 +6928,10 @@
         <v>51105</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -6925,13 +6943,13 @@
         <v>56725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -6940,13 +6958,13 @@
         <v>107830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7032,13 @@
         <v>6642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -7029,13 +7047,13 @@
         <v>24904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -7044,13 +7062,13 @@
         <v>31546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7083,13 @@
         <v>79672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
@@ -7080,13 +7098,13 @@
         <v>116453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M8" s="7">
         <v>275</v>
@@ -7095,13 +7113,13 @@
         <v>196125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7187,13 @@
         <v>9985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -7184,13 +7202,13 @@
         <v>12009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -7199,13 +7217,13 @@
         <v>21994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7238,13 @@
         <v>67616</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -7235,13 +7253,13 @@
         <v>82942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
@@ -7250,13 +7268,13 @@
         <v>150558</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7342,13 @@
         <v>1416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7339,13 +7357,13 @@
         <v>10694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -7354,13 +7372,13 @@
         <v>12110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,10 +7393,10 @@
         <v>77389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -7390,13 +7408,13 @@
         <v>99761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -7405,13 +7423,13 @@
         <v>177150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7497,13 @@
         <v>2327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7494,13 +7512,13 @@
         <v>7021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>504</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -7509,13 +7527,13 @@
         <v>9347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7548,13 @@
         <v>36004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -7545,13 +7563,13 @@
         <v>58074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -7560,13 +7578,13 @@
         <v>94079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7652,13 @@
         <v>5056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7649,13 +7667,13 @@
         <v>11106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>510</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -7664,13 +7682,13 @@
         <v>16162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7703,13 @@
         <v>58127</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -7700,13 +7718,13 @@
         <v>58747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>517</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
@@ -7715,13 +7733,13 @@
         <v>116875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,7 +7795,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7789,13 +7807,13 @@
         <v>3864</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -7804,13 +7822,13 @@
         <v>10890</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -7819,13 +7837,13 @@
         <v>14754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7858,13 @@
         <v>126976</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>531</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="H23" s="7">
         <v>226</v>
@@ -7855,13 +7873,13 @@
         <v>247953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -7870,13 +7888,13 @@
         <v>374929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>538</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,7 +7950,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7944,13 +7962,13 @@
         <v>3722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>541</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7959,13 +7977,13 @@
         <v>8361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>544</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7974,13 +7992,13 @@
         <v>12083</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8013,13 @@
         <v>166205</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
@@ -8016,7 +8034,7 @@
         <v>553</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M26" s="7">
         <v>559</v>
@@ -8025,13 +8043,13 @@
         <v>380887</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8117,13 @@
         <v>33826</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -8114,13 +8132,13 @@
         <v>90479</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>243</v>
+        <v>562</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M28" s="7">
         <v>220</v>
@@ -8129,13 +8147,13 @@
         <v>124305</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>565</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8168,13 @@
         <v>663095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
@@ -8165,13 +8183,13 @@
         <v>935338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>2513</v>
@@ -8180,13 +8198,13 @@
         <v>1598433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,7 +8260,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68840E77-8396-400C-8E5D-E2643F6145C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FEB86C-EE2A-46A0-AFD6-2D2FA40EB9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B437E2E-C17B-4242-B4BC-F647975F7558}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5A07CB3A-9521-4926-AB4D-5AA820097770}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="571">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -476,7 +476,52 @@
     <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>9,33%</t>
@@ -587,1078 +632,1024 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>2,19%</t>
@@ -1667,16 +1658,16 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>3,07%</t>
@@ -1685,31 +1676,31 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>4,57%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>94,95%</t>
+    <t>95,01%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>95,43%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>98,09%</t>
@@ -1718,28 +1709,25 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>95,15%</t>
@@ -1748,25 +1736,22 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC536C-752E-48A4-B9A1-5BC032730D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB477510-E95A-4F93-B098-CBF39C92B3C9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3709,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63A3714-6A77-47D3-BEF7-C661238652FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3D5B2-E466-4463-AFD8-97202AC27C64}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3827,43 +3812,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2039</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6559</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8597</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,43 +3863,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42242</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42335</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="N5" s="7">
+        <v>84578</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,43 +3914,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44281</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I6" s="7">
+        <v>48894</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N6" s="7">
+        <v>93175</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3973,13 @@
         <v>7392</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3985,13 +3988,13 @@
         <v>15417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4000,13 +4003,13 @@
         <v>22808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4024,13 @@
         <v>71811</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4036,13 +4039,13 @@
         <v>86676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4051,13 +4054,13 @@
         <v>158488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4128,13 @@
         <v>5063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4140,13 +4143,13 @@
         <v>9683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4155,13 +4158,13 @@
         <v>14746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4179,13 @@
         <v>50679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -4191,13 +4194,13 @@
         <v>70285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -4206,13 +4209,13 @@
         <v>120964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,49 +4277,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>6521</v>
+        <v>4482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>15078</v>
+        <v>8519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>21598</v>
+        <v>13001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,49 +4328,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>101787</v>
+        <v>59546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>119390</v>
+        <v>77055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="N14" s="7">
-        <v>221179</v>
+        <v>136601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,10 +4379,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4391,10 +4394,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4406,10 +4409,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N15" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4435,13 +4438,13 @@
         <v>3292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4450,13 +4453,13 @@
         <v>2979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4465,13 +4468,13 @@
         <v>6271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4489,13 @@
         <v>28320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4501,13 +4504,13 @@
         <v>46876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4516,13 +4519,13 @@
         <v>75196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4593,13 @@
         <v>2132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4605,13 +4608,13 @@
         <v>6406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4620,13 +4623,13 @@
         <v>8538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,10 +4644,10 @@
         <v>49624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -4656,13 +4659,13 @@
         <v>63806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -4671,13 +4674,13 @@
         <v>113430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4748,13 @@
         <v>7346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4760,13 +4763,13 @@
         <v>14165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4775,13 +4778,13 @@
         <v>21510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4799,13 @@
         <v>104917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>116</v>
@@ -4811,13 +4814,13 @@
         <v>127797</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>210</v>
@@ -4826,13 +4829,13 @@
         <v>232716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4903,13 @@
         <v>3248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4915,13 +4918,13 @@
         <v>14796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4930,13 +4933,13 @@
         <v>18044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,10 +4954,10 @@
         <v>117504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>107</v>
@@ -4966,13 +4969,13 @@
         <v>149621</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>241</v>
@@ -4981,13 +4984,13 @@
         <v>267125</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5058,13 @@
         <v>34993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5070,13 +5073,13 @@
         <v>78523</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -5085,13 +5088,13 @@
         <v>113516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5109,13 @@
         <v>524644</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>623</v>
@@ -5121,13 +5124,13 @@
         <v>664452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>1096</v>
@@ -5136,13 +5139,13 @@
         <v>1189096</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509A9BFA-70DA-4A71-B938-B89C5B3F49E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D41A9-CE7E-49FE-A129-D65AB667CD52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5239,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5346,13 +5349,13 @@
         <v>1593</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5361,13 +5364,13 @@
         <v>5607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5376,13 +5379,13 @@
         <v>7200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,10 +5400,10 @@
         <v>37303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5412,13 +5415,13 @@
         <v>43784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -5427,13 +5430,13 @@
         <v>81087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5504,13 @@
         <v>2923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5516,13 +5519,13 @@
         <v>7796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5531,13 +5534,13 @@
         <v>10719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5555,13 @@
         <v>84372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5567,13 +5570,13 @@
         <v>107432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -5582,13 +5585,13 @@
         <v>191804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5659,13 @@
         <v>2034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5671,13 +5674,13 @@
         <v>4477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5686,13 +5689,13 @@
         <v>6512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,10 +5710,10 @@
         <v>61512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5722,13 +5725,13 @@
         <v>75420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -5737,10 +5740,10 @@
         <v>136931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>102</v>
@@ -5811,13 +5814,13 @@
         <v>2578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5826,13 +5829,13 @@
         <v>4710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5841,13 +5844,13 @@
         <v>7289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5865,13 @@
         <v>62134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5877,13 +5880,13 @@
         <v>86864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5892,13 +5895,13 @@
         <v>148996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5969,13 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5981,13 +5984,13 @@
         <v>5711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5996,13 +5999,13 @@
         <v>6510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,10 +6020,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -6032,13 +6035,13 @@
         <v>44821</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -6047,13 +6050,13 @@
         <v>86102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,10 +6127,10 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6136,13 +6139,13 @@
         <v>10297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6151,13 +6154,13 @@
         <v>14499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,10 +6178,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -6187,13 +6190,13 @@
         <v>57091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -6202,13 +6205,13 @@
         <v>101335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6279,13 @@
         <v>4659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6291,13 +6294,13 @@
         <v>9548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6306,13 +6309,13 @@
         <v>14206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6330,13 @@
         <v>107526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -6342,13 +6345,13 @@
         <v>138077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -6357,13 +6360,13 @@
         <v>245604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6434,13 @@
         <v>3053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6449,10 +6452,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6461,13 +6464,13 @@
         <v>8314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6485,13 @@
         <v>131115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -6500,10 +6503,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>276</v>
@@ -6512,13 +6515,13 @@
         <v>302151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6589,13 @@
         <v>21842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -6601,13 +6604,13 @@
         <v>53406</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6616,13 +6619,13 @@
         <v>75248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,10 +6640,10 @@
         <v>569486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>45</v>
@@ -6652,10 +6655,10 @@
         <v>724525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>43</v>
@@ -6667,13 +6670,13 @@
         <v>1294011</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F58AFF-F554-4E67-B274-9917C2988119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDA84F5-7D16-4353-98B2-FC8094976840}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6770,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6874,46 +6877,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>5494</v>
+        <v>5519</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>6309</v>
+        <v>6411</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6928,13 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>51105</v>
+        <v>55009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -6940,31 +6943,31 @@
         <v>123</v>
       </c>
       <c r="I5" s="7">
-        <v>56725</v>
+        <v>57890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
       </c>
       <c r="N5" s="7">
-        <v>107830</v>
+        <v>112899</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,7 +6979,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -6991,7 +6994,7 @@
         <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -7006,7 +7009,7 @@
         <v>215</v>
       </c>
       <c r="N6" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -7029,46 +7032,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>6642</v>
+        <v>6146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>24904</v>
+        <v>22115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>31546</v>
+        <v>28261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,46 +7083,46 @@
         <v>88</v>
       </c>
       <c r="D8" s="7">
-        <v>79672</v>
+        <v>74563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H8" s="7">
         <v>187</v>
       </c>
       <c r="I8" s="7">
-        <v>116453</v>
+        <v>106877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>275</v>
       </c>
       <c r="N8" s="7">
-        <v>196125</v>
+        <v>181439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7134,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -7146,7 +7149,7 @@
         <v>223</v>
       </c>
       <c r="I9" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -7161,7 +7164,7 @@
         <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -7184,46 +7187,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>9985</v>
+        <v>9396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>12009</v>
+        <v>10858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>463</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>21994</v>
+        <v>20253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,46 +7238,46 @@
         <v>106</v>
       </c>
       <c r="D11" s="7">
-        <v>67616</v>
+        <v>64094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
       </c>
       <c r="I11" s="7">
-        <v>82942</v>
+        <v>76567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>472</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
       </c>
       <c r="N11" s="7">
-        <v>150558</v>
+        <v>140662</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,7 +7289,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -7301,7 +7304,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -7316,7 +7319,7 @@
         <v>291</v>
       </c>
       <c r="N12" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -7339,46 +7342,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1416</v>
+        <v>1305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>478</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>10694</v>
+        <v>9981</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>12110</v>
+        <v>11286</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7393,13 @@
         <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>77389</v>
+        <v>73363</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -7405,31 +7408,31 @@
         <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>99761</v>
+        <v>93655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
       </c>
       <c r="N14" s="7">
-        <v>177150</v>
+        <v>167017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,7 +7444,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -7456,7 +7459,7 @@
         <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -7471,7 +7474,7 @@
         <v>374</v>
       </c>
       <c r="N15" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7494,43 +7497,43 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2327</v>
+        <v>2063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>7021</v>
+        <v>6226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>9347</v>
+        <v>8288</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>496</v>
@@ -7545,46 +7548,46 @@
         <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>36004</v>
+        <v>32753</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
       </c>
       <c r="I17" s="7">
-        <v>58074</v>
+        <v>52669</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>504</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>501</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
       </c>
       <c r="N17" s="7">
-        <v>94079</v>
+        <v>85423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,7 +7599,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7611,7 +7614,7 @@
         <v>164</v>
       </c>
       <c r="I18" s="7">
-        <v>65095</v>
+        <v>58895</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7626,7 +7629,7 @@
         <v>235</v>
       </c>
       <c r="N18" s="7">
-        <v>103426</v>
+        <v>93711</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7649,46 +7652,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>5056</v>
+        <v>4821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>11106</v>
+        <v>10380</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>16162</v>
+        <v>15201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>513</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,46 +7703,46 @@
         <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>58127</v>
+        <v>55440</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>58747</v>
+        <v>54878</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>269</v>
       </c>
       <c r="N20" s="7">
-        <v>116875</v>
+        <v>110318</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7754,7 @@
         <v>135</v>
       </c>
       <c r="D21" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7766,7 +7769,7 @@
         <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7781,7 +7784,7 @@
         <v>312</v>
       </c>
       <c r="N21" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7804,46 +7807,46 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>3864</v>
+        <v>3663</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>10890</v>
+        <v>9669</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>14754</v>
+        <v>13332</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,46 +7858,46 @@
         <v>163</v>
       </c>
       <c r="D23" s="7">
-        <v>126976</v>
+        <v>119591</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H23" s="7">
         <v>226</v>
       </c>
       <c r="I23" s="7">
-        <v>247953</v>
+        <v>329513</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
       </c>
       <c r="N23" s="7">
-        <v>374929</v>
+        <v>449104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7909,7 @@
         <v>168</v>
       </c>
       <c r="D24" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -7921,7 +7924,7 @@
         <v>242</v>
       </c>
       <c r="I24" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -7936,7 +7939,7 @@
         <v>410</v>
       </c>
       <c r="N24" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -7959,46 +7962,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>3722</v>
+        <v>3219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>8361</v>
+        <v>7035</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>12083</v>
+        <v>10254</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,46 +8013,46 @@
         <v>229</v>
       </c>
       <c r="D26" s="7">
-        <v>166205</v>
+        <v>143861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H26" s="7">
         <v>330</v>
       </c>
       <c r="I26" s="7">
-        <v>214682</v>
+        <v>179607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>559</v>
       </c>
       <c r="N26" s="7">
-        <v>380887</v>
+        <v>323468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,7 +8064,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -8076,7 +8079,7 @@
         <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -8091,7 +8094,7 @@
         <v>578</v>
       </c>
       <c r="N27" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -8114,46 +8117,46 @@
         <v>53</v>
       </c>
       <c r="D28" s="7">
-        <v>33826</v>
+        <v>31505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
       </c>
       <c r="I28" s="7">
-        <v>90479</v>
+        <v>81781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M28" s="7">
         <v>220</v>
       </c>
       <c r="N28" s="7">
-        <v>124305</v>
+        <v>113286</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,46 +8168,46 @@
         <v>974</v>
       </c>
       <c r="D29" s="7">
-        <v>663095</v>
+        <v>618673</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
       </c>
       <c r="I29" s="7">
-        <v>935338</v>
+        <v>951657</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M29" s="7">
         <v>2513</v>
       </c>
       <c r="N29" s="7">
-        <v>1598433</v>
+        <v>1570331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8216,7 +8219,7 @@
         <v>1027</v>
       </c>
       <c r="D30" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -8231,7 +8234,7 @@
         <v>1706</v>
       </c>
       <c r="I30" s="7">
-        <v>1025817</v>
+        <v>1033438</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -8246,7 +8249,7 @@
         <v>2733</v>
       </c>
       <c r="N30" s="7">
-        <v>1722738</v>
+        <v>1683617</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
